--- a/테이블.xlsx
+++ b/테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-8.0.11-1\apache2\htdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8047146-A0A2-4A52-92B8-3ECF610F0ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1DDF20-620A-4809-A38F-0DD9CF9CBB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12252" yWindow="732" windowWidth="9240" windowHeight="8964" xr2:uid="{F5EC6E15-B845-477C-BF6F-782D4A2BD14D}"/>
+    <workbookView xWindow="12060" yWindow="1188" windowWidth="9240" windowHeight="8964" xr2:uid="{F5EC6E15-B845-477C-BF6F-782D4A2BD14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4F09CB-A02D-4E00-8F8B-AC3D9566D006}">
   <dimension ref="C2:AV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AZ12" sqref="AZ12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BE16" sqref="BE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/테이블.xlsx
+++ b/테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-8.0.11-1\apache2\htdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1DDF20-620A-4809-A38F-0DD9CF9CBB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FD702D-9E86-43EA-8CAA-95880725AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="1188" windowWidth="9240" windowHeight="8964" xr2:uid="{F5EC6E15-B845-477C-BF6F-782D4A2BD14D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5EC6E15-B845-477C-BF6F-782D4A2BD14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>cherish</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>입구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커피플라워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -64,21 +60,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>침대</t>
+    <t>달콤한 하루</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>달콤한 하루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>커피플라워</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,10 +303,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4F09CB-A02D-4E00-8F8B-AC3D9566D006}">
   <dimension ref="C2:AV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BE16" sqref="BE16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -643,17 +659,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:48" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
       <c r="L2" t="s">
         <v>2</v>
       </c>
+      <c r="W2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>3</v>
+      </c>
       <c r="AM2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="3:48" x14ac:dyDescent="0.4">
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
@@ -671,9 +694,7 @@
       <c r="P3" s="3">
         <v>2</v>
       </c>
-      <c r="W3" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="W3" s="4"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5" t="s">
@@ -684,25 +705,23 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
-      <c r="AF3" s="13">
-        <v>4</v>
-      </c>
-      <c r="AG3" s="14"/>
-      <c r="AK3" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="AF3" s="24">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="23"/>
+      <c r="AK3" s="4"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="5"/>
-      <c r="AO3" s="11">
+      <c r="AO3" s="15">
         <v>4</v>
       </c>
       <c r="AP3" s="5"/>
-      <c r="AQ3" s="11">
+      <c r="AQ3" s="15">
         <v>4</v>
       </c>
       <c r="AR3" s="5"/>
-      <c r="AS3" s="11">
+      <c r="AS3" s="15">
         <v>4</v>
       </c>
       <c r="AT3" s="5"/>
@@ -721,7 +740,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="11">
+      <c r="N4" s="15">
         <v>4</v>
       </c>
       <c r="O4" s="1"/>
@@ -741,16 +760,16 @@
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="12"/>
+      <c r="AO4" s="16"/>
       <c r="AP4" s="1"/>
-      <c r="AQ4" s="12"/>
+      <c r="AQ4" s="16"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="12"/>
+      <c r="AS4" s="16"/>
       <c r="AT4" s="1"/>
-      <c r="AU4" s="13">
-        <v>4</v>
-      </c>
-      <c r="AV4" s="14"/>
+      <c r="AU4" s="24">
+        <v>4</v>
+      </c>
+      <c r="AV4" s="23"/>
     </row>
     <row r="5" spans="3:48" x14ac:dyDescent="0.4">
       <c r="C5" s="7"/>
@@ -764,7 +783,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="12"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="1"/>
       <c r="P5" s="3">
         <v>3</v>
@@ -817,10 +836,10 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="13">
-        <v>4</v>
-      </c>
-      <c r="AG6" s="14"/>
+      <c r="AF6" s="24">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="23"/>
       <c r="AK6" s="7"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
@@ -831,10 +850,10 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="13">
-        <v>4</v>
-      </c>
-      <c r="AV6" s="14"/>
+      <c r="AU6" s="24">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="23"/>
     </row>
     <row r="7" spans="3:48" x14ac:dyDescent="0.4">
       <c r="C7" s="7"/>
@@ -848,7 +867,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="11">
+      <c r="N7" s="15">
         <v>4</v>
       </c>
       <c r="O7" s="1"/>
@@ -882,10 +901,10 @@
       <c r="AV7" s="8"/>
     </row>
     <row r="8" spans="3:48" x14ac:dyDescent="0.4">
-      <c r="C8" s="13"/>
-      <c r="D8" s="14">
-        <v>4</v>
-      </c>
+      <c r="C8" s="24">
+        <v>4</v>
+      </c>
+      <c r="D8" s="23"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -895,10 +914,12 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="12"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="1"/>
       <c r="P8" s="8"/>
-      <c r="W8" s="11"/>
+      <c r="W8" s="15">
+        <v>4</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -923,10 +944,10 @@
       </c>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
-      <c r="AU8" s="13">
-        <v>4</v>
-      </c>
-      <c r="AV8" s="14"/>
+      <c r="AU8" s="24">
+        <v>4</v>
+      </c>
+      <c r="AV8" s="23"/>
     </row>
     <row r="9" spans="3:48" x14ac:dyDescent="0.4">
       <c r="C9" s="7"/>
@@ -940,18 +961,18 @@
         <v>2</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+      <c r="J9" s="18">
+        <v>6</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="3">
         <v>3</v>
       </c>
-      <c r="W9" s="12">
-        <v>4</v>
-      </c>
+      <c r="W9" s="16"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -960,10 +981,10 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="13">
-        <v>4</v>
-      </c>
-      <c r="AG9" s="14"/>
+      <c r="AF9" s="24">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="23"/>
       <c r="AK9" s="7"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="3">
@@ -987,13 +1008,11 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="10">
-        <v>6</v>
-      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="11">
+      <c r="N10" s="15">
         <v>4</v>
       </c>
       <c r="O10" s="1"/>
@@ -1025,16 +1044,16 @@
       </c>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
-      <c r="AU10" s="13">
-        <v>4</v>
-      </c>
-      <c r="AV10" s="14"/>
+      <c r="AU10" s="24">
+        <v>4</v>
+      </c>
+      <c r="AV10" s="23"/>
     </row>
     <row r="11" spans="3:48" x14ac:dyDescent="0.4">
-      <c r="C11" s="13"/>
-      <c r="D11" s="14">
-        <v>4</v>
-      </c>
+      <c r="C11" s="24">
+        <v>4</v>
+      </c>
+      <c r="D11" s="23"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1044,10 +1063,10 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="12"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="1"/>
       <c r="P11" s="8"/>
-      <c r="W11" s="11">
+      <c r="W11" s="15">
         <v>4</v>
       </c>
       <c r="X11" s="1"/>
@@ -1094,7 +1113,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="8"/>
-      <c r="W12" s="12"/>
+      <c r="W12" s="16"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -1103,10 +1122,10 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="13">
-        <v>4</v>
-      </c>
-      <c r="AG12" s="14"/>
+      <c r="AF12" s="24">
+        <v>4</v>
+      </c>
+      <c r="AG12" s="23"/>
       <c r="AK12" s="7"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="3">
@@ -1121,10 +1140,10 @@
       </c>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
-      <c r="AU12" s="13">
-        <v>4</v>
-      </c>
-      <c r="AV12" s="14"/>
+      <c r="AU12" s="24">
+        <v>4</v>
+      </c>
+      <c r="AV12" s="23"/>
     </row>
     <row r="13" spans="3:48" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
@@ -1136,11 +1155,11 @@
       <c r="G13" s="1"/>
       <c r="H13" s="12"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6">
+      <c r="J13" s="18">
         <v>6</v>
       </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1181,9 +1200,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="10"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="1"/>
       <c r="N14" s="3">
         <v>2</v>
@@ -1192,15 +1211,15 @@
       <c r="P14" s="8"/>
       <c r="W14" s="9"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="14">
-        <v>4</v>
-      </c>
+      <c r="Y14" s="24">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="23"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="14">
-        <v>4</v>
-      </c>
+      <c r="AB14" s="24">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="23"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -1218,10 +1237,10 @@
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
-      <c r="AU14" s="13">
-        <v>4</v>
-      </c>
-      <c r="AV14" s="14"/>
+      <c r="AU14" s="24">
+        <v>4</v>
+      </c>
+      <c r="AV14" s="23"/>
     </row>
     <row r="15" spans="3:48" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
@@ -1244,15 +1263,15 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
-      <c r="AO15" s="11">
+      <c r="AO15" s="15">
         <v>4</v>
       </c>
       <c r="AP15" s="1"/>
-      <c r="AQ15" s="11">
+      <c r="AQ15" s="15">
         <v>4</v>
       </c>
       <c r="AR15" s="1"/>
-      <c r="AS15" s="11">
+      <c r="AS15" s="15">
         <v>4</v>
       </c>
       <c r="AT15" s="1"/>
@@ -1278,11 +1297,11 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
-      <c r="AO16" s="12"/>
+      <c r="AO16" s="16"/>
       <c r="AP16" s="2"/>
-      <c r="AQ16" s="12"/>
+      <c r="AQ16" s="16"/>
       <c r="AR16" s="2"/>
-      <c r="AS16" s="12"/>
+      <c r="AS16" s="16"/>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
       <c r="AV16" s="10"/>
@@ -1312,30 +1331,34 @@
     </row>
     <row r="20" spans="3:48" x14ac:dyDescent="0.4">
       <c r="AJ20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="3:48" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" t="s">
         <v>6</v>
-      </c>
-      <c r="V21" t="s">
-        <v>8</v>
       </c>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
       <c r="AN21" s="5"/>
-      <c r="AO21" s="11">
+      <c r="AO21" s="15">
         <v>4</v>
       </c>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="5"/>
       <c r="AR21" s="5"/>
-      <c r="AS21" s="11"/>
+      <c r="AS21" s="15">
+        <v>4</v>
+      </c>
       <c r="AT21" s="5"/>
-      <c r="AU21" s="11"/>
+      <c r="AU21" s="15">
+        <v>4</v>
+      </c>
       <c r="AV21" s="6"/>
     </row>
     <row r="22" spans="3:48" x14ac:dyDescent="0.4">
@@ -1369,10 +1392,10 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
-      <c r="AC22" s="13">
-        <v>4</v>
-      </c>
-      <c r="AD22" s="14"/>
+      <c r="AC22" s="24">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="23"/>
       <c r="AJ22" s="7" t="s">
         <v>1</v>
       </c>
@@ -1380,26 +1403,20 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
-      <c r="AO22" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="AO22" s="16"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
-      <c r="AS22" s="12">
-        <v>4</v>
-      </c>
+      <c r="AS22" s="16"/>
       <c r="AT22" s="1"/>
-      <c r="AU22" s="12">
-        <v>4</v>
-      </c>
+      <c r="AU22" s="16"/>
       <c r="AV22" s="8"/>
     </row>
     <row r="23" spans="3:48" x14ac:dyDescent="0.4">
-      <c r="C23" s="13"/>
-      <c r="D23" s="14">
-        <v>4</v>
-      </c>
+      <c r="C23" s="24">
+        <v>4</v>
+      </c>
+      <c r="D23" s="23"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1416,7 +1433,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="11">
+      <c r="AA23" s="15">
         <v>4</v>
       </c>
       <c r="AB23" s="1"/>
@@ -1457,7 +1474,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="12"/>
+      <c r="AA24" s="16"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="8"/>
@@ -1470,23 +1487,27 @@
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
-      <c r="AS24" s="11"/>
+      <c r="AS24" s="15">
+        <v>4</v>
+      </c>
       <c r="AT24" s="1"/>
-      <c r="AU24" s="11"/>
+      <c r="AU24" s="15">
+        <v>4</v>
+      </c>
       <c r="AV24" s="8"/>
     </row>
     <row r="25" spans="3:48" x14ac:dyDescent="0.4">
       <c r="C25" s="7"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="13">
-        <v>4</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="13">
-        <v>4</v>
-      </c>
-      <c r="I25" s="14"/>
+      <c r="F25" s="24">
+        <v>4</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24">
+        <v>4</v>
+      </c>
+      <c r="I25" s="23"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1511,20 +1532,16 @@
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
-      <c r="AS25" s="12">
-        <v>4</v>
-      </c>
+      <c r="AS25" s="16"/>
       <c r="AT25" s="1"/>
-      <c r="AU25" s="12">
-        <v>4</v>
-      </c>
+      <c r="AU25" s="16"/>
       <c r="AV25" s="8"/>
     </row>
     <row r="26" spans="3:48" x14ac:dyDescent="0.4">
-      <c r="C26" s="13">
-        <v>4</v>
-      </c>
-      <c r="D26" s="14"/>
+      <c r="C26" s="24">
+        <v>4</v>
+      </c>
+      <c r="D26" s="23"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1536,7 +1553,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="8"/>
-      <c r="V26" s="11">
+      <c r="V26" s="15">
         <v>4</v>
       </c>
       <c r="W26" s="1"/>
@@ -1545,10 +1562,10 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="13">
-        <v>4</v>
-      </c>
-      <c r="AD26" s="14"/>
+      <c r="AC26" s="24">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="23"/>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
@@ -1567,27 +1584,27 @@
       <c r="C27" s="7"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="13">
-        <v>4</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="13">
-        <v>4</v>
-      </c>
-      <c r="I27" s="14"/>
+      <c r="F27" s="24">
+        <v>4</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24">
+        <v>4</v>
+      </c>
+      <c r="I27" s="23"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="8"/>
-      <c r="V27" s="12"/>
+      <c r="V27" s="16"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="13">
-        <v>4</v>
-      </c>
-      <c r="Z27" s="14"/>
+      <c r="Y27" s="24">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="23"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -1599,20 +1616,20 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
-      <c r="AQ27" s="13">
-        <v>4</v>
-      </c>
-      <c r="AR27" s="14"/>
+      <c r="AQ27" s="24">
+        <v>4</v>
+      </c>
+      <c r="AR27" s="23"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="8"/>
     </row>
     <row r="28" spans="3:48" x14ac:dyDescent="0.4">
-      <c r="C28" s="13">
-        <v>4</v>
-      </c>
-      <c r="D28" s="14"/>
+      <c r="C28" s="24">
+        <v>4</v>
+      </c>
+      <c r="D28" s="23"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1651,20 +1668,20 @@
       <c r="C29" s="7"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="13">
-        <v>4</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="13">
-        <v>4</v>
-      </c>
-      <c r="I29" s="14"/>
+      <c r="F29" s="24">
+        <v>4</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24">
+        <v>4</v>
+      </c>
+      <c r="I29" s="23"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="13">
-        <v>4</v>
-      </c>
-      <c r="M29" s="14"/>
+      <c r="L29" s="24">
+        <v>4</v>
+      </c>
+      <c r="M29" s="23"/>
       <c r="N29" s="1"/>
       <c r="O29" s="3">
         <v>2</v>
@@ -1678,12 +1695,10 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-      <c r="AJ29" s="13">
-        <v>4</v>
-      </c>
-      <c r="AK29" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="AJ29" s="24">
+        <v>4</v>
+      </c>
+      <c r="AK29" s="23"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
@@ -1699,10 +1714,10 @@
       <c r="AV29" s="8"/>
     </row>
     <row r="30" spans="3:48" x14ac:dyDescent="0.4">
-      <c r="C30" s="13">
-        <v>4</v>
-      </c>
-      <c r="D30" s="14"/>
+      <c r="C30" s="24">
+        <v>4</v>
+      </c>
+      <c r="D30" s="23"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1714,7 +1729,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="8"/>
-      <c r="V30" s="11">
+      <c r="V30" s="15">
         <v>4</v>
       </c>
       <c r="W30" s="1"/>
@@ -1753,13 +1768,13 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="13">
-        <v>4</v>
-      </c>
-      <c r="M31" s="14"/>
+      <c r="L31" s="24">
+        <v>4</v>
+      </c>
+      <c r="M31" s="23"/>
       <c r="N31" s="2"/>
       <c r="O31" s="10"/>
-      <c r="V31" s="12"/>
+      <c r="V31" s="16"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="16"/>
@@ -1772,11 +1787,11 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
-      <c r="AN31" s="4">
+      <c r="AN31" s="18">
         <v>6</v>
       </c>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="6"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="17"/>
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
@@ -1788,15 +1803,15 @@
       <c r="E32" t="s">
         <v>2</v>
       </c>
-      <c r="AJ32" s="13">
-        <v>4</v>
-      </c>
-      <c r="AK32" s="14"/>
+      <c r="AJ32" s="24">
+        <v>4</v>
+      </c>
+      <c r="AK32" s="23"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="10"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="21"/>
+      <c r="AP32" s="22"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
@@ -1861,6 +1876,63 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AU12:AV12"/>
+    <mergeCell ref="AU10:AV10"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="AN31:AP32"/>
+    <mergeCell ref="AO15:AO16"/>
+    <mergeCell ref="AQ15:AQ16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AQ27:AR27"/>
+    <mergeCell ref="AS24:AS25"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="AU21:AU22"/>
+    <mergeCell ref="AS21:AS22"/>
+    <mergeCell ref="AO21:AO22"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="J13:L14"/>
+    <mergeCell ref="J9:L10"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
